--- a/biology/Médecine/Hamulus_ptérygoïdien/Hamulus_ptérygoïdien.xlsx
+++ b/biology/Médecine/Hamulus_ptérygoïdien/Hamulus_ptérygoïdien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hamulus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Hamulus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hamulus ptérygoïdien (ou crochet ptérygoïdien) est un processus en forme de crochet à l'extrémité inférieure de la lame médiale du processus ptérygoïde de l'os sphénoïde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hamulus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Hamulus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hamulus ptérygoïdien a une extrémité arrondie[1]. Il a une longueur moyenne de 7,2 mm, une profondeur moyenne de 1,4 mm et une largeur moyenne de 2,3 mm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hamulus ptérygoïdien a une extrémité arrondie. Il a une longueur moyenne de 7,2 mm, une profondeur moyenne de 1,4 mm et une largeur moyenne de 2,3 mm.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hamulus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Hamulus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hamulus ptérygoïdien forme le sillon de l'hamulus ptérygoïdien[2] qui sert de poulie de réflexion pour le tendon du muscle tenseur du voile du palais.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hamulus ptérygoïdien forme le sillon de l'hamulus ptérygoïdien qui sert de poulie de réflexion pour le tendon du muscle tenseur du voile du palais.
 C'est l'origine supérieure du raphé ptérygomandibulaire.
 </t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hamulus_pt%C3%A9rygo%C3%AFdien</t>
+          <t>Hamulus_ptérygoïdien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rarement, l'hamulus ptérygoïdien peut être élargi, ce qui peut provoquer des douleurs buccales[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rarement, l'hamulus ptérygoïdien peut être élargi, ce qui peut provoquer des douleurs buccales.
 </t>
         </is>
       </c>
